--- a/Jupyter/Wedge/wedge_vs_dshape_collated_2025-01-24.xlsx
+++ b/Jupyter/Wedge/wedge_vs_dshape_collated_2025-01-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\Jupyter\Wedge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA51153-5E6C-4F27-9148-F6D88914604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602DCC57-5C53-447A-B545-2DDF39F7A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Fertile kg/m3</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>TRITIUM BREEDING RATIO [ RXNS/SRC-N ]</t>
-  </si>
-  <si>
-    <t>Wedge</t>
   </si>
   <si>
     <t>Wedge/D-shape</t>
@@ -63,6 +60,15 @@
   </si>
   <si>
     <t>D-shape/wedge</t>
+  </si>
+  <si>
+    <t>Wedge-C</t>
+  </si>
+  <si>
+    <t>Wedge-A</t>
+  </si>
+  <si>
+    <t>=C/A</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$D$11:$D$23</c:f>
+              <c:f>'Sheet 1'!$E$11:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -868,7 +874,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$G$11:$G$23</c:f>
+              <c:f>'Sheet 1'!$H$11:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -999,7 +1005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$H$11:$H$23</c:f>
+              <c:f>'Sheet 1'!$J$11:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1424,48 +1430,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$E$11:$E$23</c:f>
+              <c:f>'Sheet 1'!$F$11:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.98215385902659358</c:v>
+                  <c:v>1.0096820280799241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98203818000196974</c:v>
+                  <c:v>1.010150302385513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98233124644332637</c:v>
+                  <c:v>1.011312904649821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98414421045326572</c:v>
+                  <c:v>1.0123872290134968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98620843151639703</c:v>
+                  <c:v>1.0146024673490877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9879632515229031</c:v>
+                  <c:v>1.0150199639284738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98890099734312431</c:v>
+                  <c:v>1.0178999373996485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99111928758233259</c:v>
+                  <c:v>1.0189967200555723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9920968502601536</c:v>
+                  <c:v>1.0181329826410641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99638513194317113</c:v>
+                  <c:v>1.0243687128733818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0083240032099037</c:v>
+                  <c:v>1.0349463140052506</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0206371812187167</c:v>
+                  <c:v>1.0474582258595109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0391633324972136</c:v>
+                  <c:v>1.0652973721752281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$I$11:$I$23</c:f>
+              <c:f>'Sheet 1'!$K$11:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2110,7 +2116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$D$30:$D$42</c:f>
+              <c:f>'Sheet 1'!$E$30:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2535,7 +2541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$G$30:$G$42</c:f>
+              <c:f>'Sheet 1'!$H$30:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2666,7 +2672,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$H$30:$H$42</c:f>
+              <c:f>'Sheet 1'!$J$30:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3094,48 +3100,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$E$30:$E$42</c:f>
+              <c:f>'Sheet 1'!$F$30:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.60664708230623576</c:v>
+                  <c:v>0.62152718273735696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60988163769499404</c:v>
+                  <c:v>0.62740916871629804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61029455715651293</c:v>
+                  <c:v>0.62753379367415207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63861511357334044</c:v>
+                  <c:v>0.65851576590903027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66538860290064994</c:v>
+                  <c:v>0.68602263363889182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69437286193317926</c:v>
+                  <c:v>0.71156348445418438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7303487224871601</c:v>
+                  <c:v>0.75091931427833325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75449039033495524</c:v>
+                  <c:v>0.77542363477847343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76638425008785249</c:v>
+                  <c:v>0.78507504183562671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82137283592286769</c:v>
+                  <c:v>0.83998626818988043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86290194261690956</c:v>
+                  <c:v>0.87965598000432965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87364962839429117</c:v>
+                  <c:v>0.8930323915997268</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87549435816244625</c:v>
+                  <c:v>0.89626236151796135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,7 +3231,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$I$30:$I$42</c:f>
+              <c:f>'Sheet 1'!$K$30:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6837,13 +6843,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -6873,13 +6879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -6909,13 +6915,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -6945,13 +6951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -6981,13 +6987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -7017,13 +7023,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -7317,64 +7323,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22416C2-1180-4450-A3B0-0B08DD9AEC85}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="2.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G1" s="1"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N3" s="2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="D8" s="11"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="3"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -7383,26 +7395,29 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -7410,32 +7425,32 @@
       <c r="C11">
         <v>1.40420707746021</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
+        <f>1.35286+0.0130625</f>
+        <v>1.3659224999999999</v>
+      </c>
+      <c r="E11">
         <f>1.36234+0.0168074</f>
         <v>1.3791474000000001</v>
       </c>
-      <c r="E11" s="12">
-        <f t="shared" ref="E11:E23" si="0">D11/C11</f>
-        <v>0.98215385902659358</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11">
+      <c r="F11" s="12">
+        <f>E11/D11</f>
+        <v>1.0096820280799241</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11">
         <v>1.4043892076542099</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <f>1.36249+0.0168087</f>
         <v>1.3792986999999999</v>
       </c>
-      <c r="I11" s="12">
-        <f t="shared" ref="I11:I23" si="1">H11/G11</f>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11:K23" si="0">J11/H11</f>
         <v>0.9821342206865008</v>
       </c>
-      <c r="J11">
-        <f>1/I11</f>
-        <v>1.0181907716248917</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0.5</v>
       </c>
@@ -7443,31 +7458,31 @@
       <c r="C12" s="4">
         <v>1.4042408208581401</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="13">
+        <f>1.35209+ 0.0130713</f>
+        <v>1.3651613</v>
+      </c>
+      <c r="E12" s="4">
         <f>1.36221+0.0168081</f>
         <v>1.3790180999999999</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>0.98203818000196974</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:F23" si="1">E12/D12</f>
+        <v>1.010150302385513</v>
+      </c>
+      <c r="H12" s="4">
         <v>1.40439738055425</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <f>1.36217 +0.0168081</f>
         <v>1.3789781000000001</v>
       </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
         <v>0.9819002221833979</v>
       </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J22" si="2">1/I12</f>
-        <v>1.0184334185976194</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
@@ -7475,32 +7490,32 @@
       <c r="C13">
         <v>1.4037049162311801</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="12">
+        <f>1.35042+0.0130583</f>
+        <v>1.3634782999999999</v>
+      </c>
+      <c r="E13">
         <f>1.3621+ 0.0168032</f>
         <v>1.3789032000000001</v>
       </c>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.98233124644332637</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13">
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.011312904649821</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13">
         <v>1.4041504591101699</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <f xml:space="preserve"> 1.36198+0.0168031</f>
         <v>1.3787830999999999</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" si="1"/>
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
         <v>0.98193401643991507</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>1.0183983681771049</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -7508,31 +7523,31 @@
       <c r="C14" s="4">
         <v>1.3978225806626601</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="13">
+        <f xml:space="preserve"> 1.3458+ 0.0130269</f>
+        <v>1.3588269000000002</v>
+      </c>
+      <c r="E14" s="4">
         <f>1.35891+ 0.016749</f>
         <v>1.375659</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>0.98414421045326572</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0123872290134968</v>
+      </c>
+      <c r="H14" s="4">
         <v>1.3977474767840601</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <f>1.35723 +0.0167494</f>
         <v>1.3739793999999999</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="1"/>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
         <v>0.98299544289734953</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1.0172987140739229</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>30</v>
       </c>
@@ -7540,32 +7555,32 @@
       <c r="C15">
         <v>1.3935791421766499</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
+        <f xml:space="preserve"> 1.34161+ 0.0129693</f>
+        <v>1.3545792999999999</v>
+      </c>
+      <c r="E15">
         <f>1.35765 + 0.0167095</f>
         <v>1.3743595</v>
       </c>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.98620843151639703</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15">
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0146024673490877</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15">
         <v>1.3923333952149399</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <f>1.35369+0.0167077</f>
         <v>1.3703977000000001</v>
       </c>
-      <c r="I15" s="12">
-        <f t="shared" si="1"/>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
         <v>0.98424537162555559</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>1.016006809712932</v>
-      </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>60</v>
       </c>
@@ -7573,31 +7588,31 @@
       <c r="C16" s="4">
         <v>1.38536063754419</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="13">
+        <f xml:space="preserve"> 1.33559+ 0.012842</f>
+        <v>1.3484320000000001</v>
+      </c>
+      <c r="E16" s="4">
         <f>1.35209 + 0.0165954</f>
         <v>1.3686853999999999</v>
       </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>0.9879632515229031</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0150199639284738</v>
+      </c>
+      <c r="H16" s="4">
         <v>1.3811147115786999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <f xml:space="preserve"> 1.34701 +  0.0165972</f>
         <v>1.3636072000000001</v>
       </c>
-      <c r="I16" s="13">
-        <f t="shared" si="1"/>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
         <v>0.9873236368913284</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>1.0128391164102828</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>90</v>
       </c>
@@ -7605,32 +7620,32 @@
       <c r="C17">
         <v>1.37856347972413</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
+        <f xml:space="preserve"> 1.32652+0.0127696</f>
+        <v>1.3392895999999999</v>
+      </c>
+      <c r="E17">
         <f>1.34678 +0.0164828</f>
         <v>1.3632628</v>
       </c>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>0.98890099734312431</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17">
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0178999373996485</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17">
         <v>1.3698685473168299</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <f>1.33852+ 0.0164785</f>
         <v>1.3549985</v>
       </c>
-      <c r="I17" s="12">
-        <f t="shared" si="1"/>
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
         <v>0.98914490930830112</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>1.0109742168104467</v>
-      </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>120</v>
       </c>
@@ -7638,31 +7653,31 @@
       <c r="C18" s="4">
         <v>1.3699400435562701</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="13">
+        <f xml:space="preserve"> 1.31981+0.0126516</f>
+        <v>1.3324616</v>
+      </c>
+      <c r="E18" s="4">
         <f>1.34139 + 0.016384</f>
         <v>1.357774</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>0.99111928758233259</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0189967200555723</v>
+      </c>
+      <c r="H18" s="4">
         <v>1.35986137171571</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <f xml:space="preserve"> 1.33039+ 0.0163766</f>
         <v>1.3467666</v>
       </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
+      <c r="K18" s="13">
+        <f t="shared" si="0"/>
         <v>0.99037050982690356</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>1.0097231188505194</v>
-      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>150</v>
       </c>
@@ -7670,32 +7685,32 @@
       <c r="C19">
         <v>1.3618779251700099</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
+        <f xml:space="preserve"> 1.31449+0.0125614</f>
+        <v>1.3270514</v>
+      </c>
+      <c r="E19">
         <f xml:space="preserve"> 1.33482 + 0.0162948</f>
         <v>1.3511147999999999</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>0.9920968502601536</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19">
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0181329826410641</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19">
         <v>1.34863286309854</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <f xml:space="preserve"> 1.32211 +  0.0162819</f>
         <v>1.3383919</v>
       </c>
-      <c r="I19" s="12">
-        <f t="shared" si="1"/>
+      <c r="K19" s="12">
+        <f t="shared" si="0"/>
         <v>0.99240641142689423</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>1.0076516923769039</v>
-      </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>250</v>
       </c>
@@ -7703,31 +7718,31 @@
       <c r="C20" s="4">
         <v>1.34128105403747</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="13">
+        <f>1.29243+0.0122101</f>
+        <v>1.3046400999999999</v>
+      </c>
+      <c r="E20" s="4">
         <f>1.32048+0.0159525</f>
         <v>1.3364325000000001</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0.99638513194317113</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0243687128733818</v>
+      </c>
+      <c r="H20" s="4">
         <v>1.31869938927708</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <f xml:space="preserve"> 1.29819 +0.0159423</f>
         <v>1.3141323</v>
       </c>
-      <c r="I20" s="13">
-        <f t="shared" si="1"/>
+      <c r="K20" s="13">
+        <f t="shared" si="0"/>
         <v>0.9965366714247258</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>1.0034753649058621</v>
-      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>500</v>
       </c>
@@ -7735,32 +7750,32 @@
       <c r="C21">
         <v>1.2896852557910301</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
+        <f xml:space="preserve"> 1.24511+0.0114002</f>
+        <v>1.2565101999999999</v>
+      </c>
+      <c r="E21">
         <f>1.28524+ 0.0151806</f>
         <v>1.3004206</v>
       </c>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0083240032099037</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21">
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0349463140052506</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21">
         <v>1.24433347413396</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <f xml:space="preserve"> 1.2464 +0.0151558</f>
         <v>1.2615558</v>
       </c>
-      <c r="I21" s="12">
-        <f t="shared" si="1"/>
+      <c r="K21" s="12">
+        <f t="shared" si="0"/>
         <v>1.0138406032016671</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0.98634834395272875</v>
-      </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>750</v>
       </c>
@@ -7768,31 +7783,31 @@
       <c r="C22" s="4">
         <v>1.24225887840578</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="13">
+        <f>1.19988+ 0.0105698</f>
+        <v>1.2104498000000001</v>
+      </c>
+      <c r="E22" s="4">
         <f xml:space="preserve"> 1.25348 + 0.0144156</f>
         <v>1.2678955999999999</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" si="0"/>
-        <v>1.0206371812187167</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0474582258595109</v>
+      </c>
+      <c r="H22" s="4">
         <v>1.1765306054398399</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <f>1.19574+0.0143624</f>
         <v>1.2101024</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" si="1"/>
+      <c r="K22" s="13">
+        <f t="shared" si="0"/>
         <v>1.0285345696957959</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0.97225706307155491</v>
-      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -7800,51 +7815,55 @@
       <c r="C23">
         <v>1.1938794039418501</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
+        <f>1.15479+0.00980097</f>
+        <v>1.1645909699999999</v>
+      </c>
+      <c r="E23">
         <f xml:space="preserve"> 1.22694+ 0.0136957</f>
         <v>1.2406356999999999</v>
       </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0391633324972136</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23">
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0652973721752281</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23">
         <v>1.1108715265371401</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <f>1.1507+0.013642</f>
         <v>1.164342</v>
       </c>
-      <c r="I23" s="12">
-        <f t="shared" si="1"/>
+      <c r="K23" s="12">
+        <f t="shared" si="0"/>
         <v>1.0481338050220268</v>
       </c>
-      <c r="J23">
-        <f>1/I23</f>
-        <v>0.95407666006821024</v>
-      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I28" s="3"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
@@ -7853,26 +7872,32 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
+      <c r="L29" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -7881,29 +7906,33 @@
         <v>3.52725672373683E-5</v>
       </c>
       <c r="D30" s="2">
+        <v>3.4428100000000003E-5</v>
+      </c>
+      <c r="E30" s="2">
         <v>2.1398000000000001E-5</v>
       </c>
-      <c r="E30" s="12">
-        <f t="shared" ref="E30:E42" si="3">D30/C30</f>
-        <v>0.60664708230623576</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2">
+      <c r="F30" s="12">
+        <f>E30/D30</f>
+        <v>0.62152718273735696</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="2">
         <v>3.2364516810043102E-5</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
         <v>2.3511199999999999E-5</v>
       </c>
-      <c r="I30" s="12">
-        <f t="shared" ref="I30:I42" si="4">H30/G30</f>
+      <c r="K30" s="12">
+        <f t="shared" ref="K30:K42" si="2">J30/H30</f>
         <v>0.7264498999936928</v>
       </c>
-      <c r="J30">
-        <f>1/I30</f>
+      <c r="L30">
+        <f>1/K30</f>
         <v>1.3765574198698109</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0.5</v>
       </c>
@@ -7912,29 +7941,32 @@
         <v>1.76088265923015E-4</v>
       </c>
       <c r="D31" s="5">
+        <v>1.7116899999999999E-4</v>
+      </c>
+      <c r="E31" s="5">
         <v>1.0739300000000001E-4</v>
       </c>
-      <c r="E31" s="13">
-        <f t="shared" si="3"/>
-        <v>0.60988163769499404</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31">
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:F42" si="3">E31/D31</f>
+        <v>0.62740916871629804</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31">
         <v>1.617388801088E-4</v>
       </c>
-      <c r="H31" s="4">
+      <c r="J31" s="4">
         <v>1.19424E-4</v>
       </c>
-      <c r="I31" s="13">
-        <f t="shared" si="4"/>
+      <c r="K31" s="13">
+        <f t="shared" si="2"/>
         <v>0.73837533634253416</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J41" si="5">1/I31</f>
+      <c r="L31">
+        <f t="shared" ref="L31:L41" si="4">1/K31</f>
         <v>1.3543247597534833</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.5</v>
       </c>
@@ -7943,29 +7975,32 @@
         <v>5.2684723504348998E-4</v>
       </c>
       <c r="D32" s="2">
+        <v>5.1237400000000001E-4</v>
+      </c>
+      <c r="E32" s="2">
         <v>3.2153200000000002E-4</v>
       </c>
-      <c r="E32" s="12">
+      <c r="F32" s="12">
         <f t="shared" si="3"/>
-        <v>0.61029455715651293</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32">
+        <v>0.62753379367415207</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32">
         <v>4.8469625132600001E-4</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>3.5842699999999998E-4</v>
       </c>
-      <c r="I32" s="12">
+      <c r="K32" s="12">
+        <f t="shared" si="2"/>
+        <v>0.73948787311525321</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="4"/>
-        <v>0.73948787311525321</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
         <v>1.3522872197853399</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>15</v>
       </c>
@@ -7974,29 +8009,32 @@
         <v>5.02535867346246E-3</v>
       </c>
       <c r="D33" s="5">
+        <v>4.8734900000000003E-3</v>
+      </c>
+      <c r="E33" s="5">
         <v>3.2092700000000002E-3</v>
       </c>
-      <c r="E33" s="13">
+      <c r="F33" s="13">
         <f t="shared" si="3"/>
-        <v>0.63861511357334044</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33">
+        <v>0.65851576590903027</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33">
         <v>4.7442437671726999E-3</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J33" s="4">
         <v>3.6266200000000001E-3</v>
       </c>
-      <c r="I33" s="13">
+      <c r="K33" s="13">
+        <f t="shared" si="2"/>
+        <v>0.76442530737860037</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="4"/>
-        <v>0.76442530737860037</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
         <v>1.3081722836064158</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -8005,29 +8043,32 @@
         <v>9.6096776712520909E-3</v>
       </c>
       <c r="D34" s="2">
+        <v>9.3206399999999998E-3</v>
+      </c>
+      <c r="E34" s="2">
         <v>6.3941700000000002E-3</v>
       </c>
-      <c r="E34" s="12">
+      <c r="F34" s="12">
         <f t="shared" si="3"/>
-        <v>0.66538860290064994</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34">
+        <v>0.68602263363889182</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34">
         <v>9.3381817414101998E-3</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>7.1111300000000002E-3</v>
       </c>
-      <c r="I34" s="12">
+      <c r="K34" s="12">
+        <f t="shared" si="2"/>
+        <v>0.76151120174344744</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="4"/>
-        <v>0.76151120174344744</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
         <v>1.3131783192558988</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>60</v>
       </c>
@@ -8036,29 +8077,32 @@
         <v>1.7956202904139199E-2</v>
       </c>
       <c r="D35" s="5">
+        <v>1.75224E-2</v>
+      </c>
+      <c r="E35" s="5">
         <v>1.24683E-2</v>
       </c>
-      <c r="E35" s="13">
+      <c r="F35" s="13">
         <f t="shared" si="3"/>
-        <v>0.69437286193317926</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35">
+        <v>0.71156348445418438</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35">
         <v>1.8093633576609602E-2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="J35" s="4">
         <v>1.4057099999999999E-2</v>
       </c>
-      <c r="I35" s="13">
+      <c r="K35" s="13">
+        <f t="shared" si="2"/>
+        <v>0.77690862592532006</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="4"/>
-        <v>0.77690862592532006</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
         <v>1.2871526542892633</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>90</v>
       </c>
@@ -8067,29 +8111,32 @@
         <v>2.54716677488637E-2</v>
       </c>
       <c r="D36" s="2">
+        <v>2.4773900000000001E-2</v>
+      </c>
+      <c r="E36" s="2">
         <v>1.86032E-2</v>
       </c>
-      <c r="E36" s="12">
+      <c r="F36" s="12">
         <f t="shared" si="3"/>
-        <v>0.7303487224871601</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36">
+        <v>0.75091931427833325</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36">
         <v>2.63480432958439E-2</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>2.06655E-2</v>
       </c>
-      <c r="I36" s="12">
+      <c r="K36" s="12">
+        <f t="shared" si="2"/>
+        <v>0.78432769249547063</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="4"/>
-        <v>0.78432769249547063</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
         <v>1.2749772952913745</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>120</v>
       </c>
@@ -8098,29 +8145,32 @@
         <v>3.2417642839879697E-2</v>
       </c>
       <c r="D37" s="5">
+        <v>3.1542500000000001E-2</v>
+      </c>
+      <c r="E37" s="5">
         <v>2.4458799999999999E-2</v>
       </c>
-      <c r="E37" s="13">
+      <c r="F37" s="13">
         <f t="shared" si="3"/>
-        <v>0.75449039033495524</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37">
+        <v>0.77542363477847343</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37">
         <v>3.4169678168819703E-2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="J37" s="4">
         <v>2.7493E-2</v>
       </c>
-      <c r="I37" s="13">
+      <c r="K37" s="13">
+        <f t="shared" si="2"/>
+        <v>0.80460225186105905</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="4"/>
-        <v>0.80460225186105905</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
         <v>1.2428501134405012</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>150</v>
       </c>
@@ -8129,29 +8179,32 @@
         <v>3.9055212834252402E-2</v>
       </c>
       <c r="D38" s="2">
+        <v>3.8125399999999997E-2</v>
+      </c>
+      <c r="E38" s="2">
         <v>2.9931300000000001E-2</v>
       </c>
-      <c r="E38" s="12">
+      <c r="F38" s="12">
         <f t="shared" si="3"/>
-        <v>0.76638425008785249</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38">
+        <v>0.78507504183562671</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38">
         <v>4.1796462699614498E-2</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>3.3603399999999999E-2</v>
       </c>
-      <c r="I38" s="12">
+      <c r="K38" s="12">
+        <f t="shared" si="2"/>
+        <v>0.80397712700003043</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="4"/>
-        <v>0.80397712700003043</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
         <v>1.24381647986854</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>250</v>
       </c>
@@ -8160,29 +8213,32 @@
         <v>5.8983323870902299E-2</v>
       </c>
       <c r="D39" s="5">
+        <v>5.76763E-2</v>
+      </c>
+      <c r="E39" s="5">
         <v>4.8447299999999999E-2</v>
       </c>
-      <c r="E39" s="13">
+      <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>0.82137283592286769</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39">
+        <v>0.83998626818988043</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39">
         <v>6.5796691976300697E-2</v>
       </c>
-      <c r="H39" s="4">
+      <c r="J39" s="4">
         <v>5.4200499999999999E-2</v>
       </c>
-      <c r="I39" s="13">
+      <c r="K39" s="13">
+        <f t="shared" si="2"/>
+        <v>0.82375721897268739</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>0.82375721897268739</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
         <v>1.2139499077739264</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>500</v>
       </c>
@@ -8191,29 +8247,32 @@
         <v>0.103595084893309</v>
       </c>
       <c r="D40" s="2">
+        <v>0.101622</v>
+      </c>
+      <c r="E40" s="2">
         <v>8.9392399999999997E-2</v>
       </c>
-      <c r="E40" s="12">
+      <c r="F40" s="12">
         <f t="shared" si="3"/>
-        <v>0.86290194261690956</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40">
+        <v>0.87965598000432965</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40">
         <v>0.11839645185777101</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>0.100121</v>
       </c>
-      <c r="I40" s="12">
+      <c r="K40" s="12">
+        <f t="shared" si="2"/>
+        <v>0.84564189575777826</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="4"/>
-        <v>0.84564189575777826</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
         <v>1.1825336528577521</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>750</v>
       </c>
@@ -8222,29 +8281,32 @@
         <v>0.14519436153500101</v>
       </c>
       <c r="D41" s="5">
+        <v>0.142043</v>
+      </c>
+      <c r="E41" s="5">
         <v>0.12684899999999999</v>
       </c>
-      <c r="E41" s="13">
+      <c r="F41" s="13">
         <f t="shared" si="3"/>
-        <v>0.87364962839429117</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41">
+        <v>0.8930323915997268</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41">
         <v>0.165934052581929</v>
       </c>
-      <c r="H41" s="4">
+      <c r="J41" s="4">
         <v>0.14074300000000001</v>
       </c>
-      <c r="I41" s="13">
+      <c r="K41" s="13">
+        <f t="shared" si="2"/>
+        <v>0.84818635964133371</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="4"/>
-        <v>0.84818635964133371</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
         <v>1.1789861846196896</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -8253,25 +8315,28 @@
         <v>0.185920101577397</v>
       </c>
       <c r="D42" s="2">
+        <v>0.181612</v>
+      </c>
+      <c r="E42" s="2">
         <v>0.162772</v>
       </c>
-      <c r="E42" s="12">
+      <c r="F42" s="12">
         <f t="shared" si="3"/>
-        <v>0.87549435816244625</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42">
+        <v>0.89626236151796135</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42">
         <v>0.211237572970251</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.17777100000000001</v>
       </c>
-      <c r="I42" s="12">
-        <f t="shared" si="4"/>
+      <c r="K42" s="12">
+        <f t="shared" si="2"/>
         <v>0.8415690329155403</v>
       </c>
-      <c r="J42">
-        <f>1/I42</f>
+      <c r="L42">
+        <f>1/K42</f>
         <v>1.1882566502424523</v>
       </c>
     </row>
